--- a/resources/test.xlsx
+++ b/resources/test.xlsx
@@ -6,19 +6,22 @@
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Иван1</t>
   </si>
   <si>
     <t>Тверь</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>Иван2</t>
@@ -140,7 +143,8 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
@@ -650,7 +654,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0" zoomScale="100">
+    <sheetView topLeftCell="A17" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -663,243 +667,333 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1</v>
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/resources/test.xlsx
+++ b/resources/test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
   <si>
     <t>Иван1</t>
   </si>
@@ -109,6 +109,1416 @@
   </si>
   <si>
     <t>Иван30</t>
+  </si>
+  <si>
+    <t>Иван31</t>
+  </si>
+  <si>
+    <t>Иван32</t>
+  </si>
+  <si>
+    <t>Иван33</t>
+  </si>
+  <si>
+    <t>Иван34</t>
+  </si>
+  <si>
+    <t>Иван35</t>
+  </si>
+  <si>
+    <t>Иван36</t>
+  </si>
+  <si>
+    <t>Иван37</t>
+  </si>
+  <si>
+    <t>Иван38</t>
+  </si>
+  <si>
+    <t>Иван39</t>
+  </si>
+  <si>
+    <t>Иван40</t>
+  </si>
+  <si>
+    <t>Иван41</t>
+  </si>
+  <si>
+    <t>Иван42</t>
+  </si>
+  <si>
+    <t>Иван43</t>
+  </si>
+  <si>
+    <t>Иван44</t>
+  </si>
+  <si>
+    <t>Иван45</t>
+  </si>
+  <si>
+    <t>Иван46</t>
+  </si>
+  <si>
+    <t>Иван47</t>
+  </si>
+  <si>
+    <t>Иван48</t>
+  </si>
+  <si>
+    <t>Иван49</t>
+  </si>
+  <si>
+    <t>Иван50</t>
+  </si>
+  <si>
+    <t>Иван51</t>
+  </si>
+  <si>
+    <t>Иван52</t>
+  </si>
+  <si>
+    <t>Иван53</t>
+  </si>
+  <si>
+    <t>Иван54</t>
+  </si>
+  <si>
+    <t>Иван55</t>
+  </si>
+  <si>
+    <t>Иван56</t>
+  </si>
+  <si>
+    <t>Иван57</t>
+  </si>
+  <si>
+    <t>Иван58</t>
+  </si>
+  <si>
+    <t>Иван59</t>
+  </si>
+  <si>
+    <t>Иван60</t>
+  </si>
+  <si>
+    <t>Иван61</t>
+  </si>
+  <si>
+    <t>Иван62</t>
+  </si>
+  <si>
+    <t>Иван63</t>
+  </si>
+  <si>
+    <t>Иван64</t>
+  </si>
+  <si>
+    <t>Иван65</t>
+  </si>
+  <si>
+    <t>Иван66</t>
+  </si>
+  <si>
+    <t>Иван67</t>
+  </si>
+  <si>
+    <t>Иван68</t>
+  </si>
+  <si>
+    <t>Иван69</t>
+  </si>
+  <si>
+    <t>Иван70</t>
+  </si>
+  <si>
+    <t>Иван71</t>
+  </si>
+  <si>
+    <t>Иван72</t>
+  </si>
+  <si>
+    <t>Иван73</t>
+  </si>
+  <si>
+    <t>Иван74</t>
+  </si>
+  <si>
+    <t>Иван75</t>
+  </si>
+  <si>
+    <t>Иван76</t>
+  </si>
+  <si>
+    <t>Иван77</t>
+  </si>
+  <si>
+    <t>Иван78</t>
+  </si>
+  <si>
+    <t>Иван79</t>
+  </si>
+  <si>
+    <t>Иван80</t>
+  </si>
+  <si>
+    <t>Иван81</t>
+  </si>
+  <si>
+    <t>Иван82</t>
+  </si>
+  <si>
+    <t>Иван83</t>
+  </si>
+  <si>
+    <t>Иван84</t>
+  </si>
+  <si>
+    <t>Иван85</t>
+  </si>
+  <si>
+    <t>Иван86</t>
+  </si>
+  <si>
+    <t>Иван87</t>
+  </si>
+  <si>
+    <t>Иван88</t>
+  </si>
+  <si>
+    <t>Иван89</t>
+  </si>
+  <si>
+    <t>Иван90</t>
+  </si>
+  <si>
+    <t>Иван91</t>
+  </si>
+  <si>
+    <t>Иван92</t>
+  </si>
+  <si>
+    <t>Иван93</t>
+  </si>
+  <si>
+    <t>Иван94</t>
+  </si>
+  <si>
+    <t>Иван95</t>
+  </si>
+  <si>
+    <t>Иван96</t>
+  </si>
+  <si>
+    <t>Иван97</t>
+  </si>
+  <si>
+    <t>Иван98</t>
+  </si>
+  <si>
+    <t>Иван99</t>
+  </si>
+  <si>
+    <t>Иван100</t>
+  </si>
+  <si>
+    <t>Иван101</t>
+  </si>
+  <si>
+    <t>Иван102</t>
+  </si>
+  <si>
+    <t>Иван103</t>
+  </si>
+  <si>
+    <t>Иван104</t>
+  </si>
+  <si>
+    <t>Иван105</t>
+  </si>
+  <si>
+    <t>Иван106</t>
+  </si>
+  <si>
+    <t>Иван107</t>
+  </si>
+  <si>
+    <t>Иван108</t>
+  </si>
+  <si>
+    <t>Иван109</t>
+  </si>
+  <si>
+    <t>Иван110</t>
+  </si>
+  <si>
+    <t>Иван111</t>
+  </si>
+  <si>
+    <t>Иван112</t>
+  </si>
+  <si>
+    <t>Иван113</t>
+  </si>
+  <si>
+    <t>Иван114</t>
+  </si>
+  <si>
+    <t>Иван115</t>
+  </si>
+  <si>
+    <t>Иван116</t>
+  </si>
+  <si>
+    <t>Иван117</t>
+  </si>
+  <si>
+    <t>Иван118</t>
+  </si>
+  <si>
+    <t>Иван119</t>
+  </si>
+  <si>
+    <t>Иван120</t>
+  </si>
+  <si>
+    <t>Иван121</t>
+  </si>
+  <si>
+    <t>Иван122</t>
+  </si>
+  <si>
+    <t>Иван123</t>
+  </si>
+  <si>
+    <t>Иван124</t>
+  </si>
+  <si>
+    <t>Иван125</t>
+  </si>
+  <si>
+    <t>Иван126</t>
+  </si>
+  <si>
+    <t>Иван127</t>
+  </si>
+  <si>
+    <t>Иван128</t>
+  </si>
+  <si>
+    <t>Иван129</t>
+  </si>
+  <si>
+    <t>Иван130</t>
+  </si>
+  <si>
+    <t>Иван131</t>
+  </si>
+  <si>
+    <t>Иван132</t>
+  </si>
+  <si>
+    <t>Иван133</t>
+  </si>
+  <si>
+    <t>Иван134</t>
+  </si>
+  <si>
+    <t>Иван135</t>
+  </si>
+  <si>
+    <t>Иван136</t>
+  </si>
+  <si>
+    <t>Иван137</t>
+  </si>
+  <si>
+    <t>Иван138</t>
+  </si>
+  <si>
+    <t>Иван139</t>
+  </si>
+  <si>
+    <t>Иван140</t>
+  </si>
+  <si>
+    <t>Иван141</t>
+  </si>
+  <si>
+    <t>Иван142</t>
+  </si>
+  <si>
+    <t>Иван143</t>
+  </si>
+  <si>
+    <t>Иван144</t>
+  </si>
+  <si>
+    <t>Иван145</t>
+  </si>
+  <si>
+    <t>Иван146</t>
+  </si>
+  <si>
+    <t>Иван147</t>
+  </si>
+  <si>
+    <t>Иван148</t>
+  </si>
+  <si>
+    <t>Иван149</t>
+  </si>
+  <si>
+    <t>Иван150</t>
+  </si>
+  <si>
+    <t>Иван151</t>
+  </si>
+  <si>
+    <t>Иван152</t>
+  </si>
+  <si>
+    <t>Иван153</t>
+  </si>
+  <si>
+    <t>Иван154</t>
+  </si>
+  <si>
+    <t>Иван155</t>
+  </si>
+  <si>
+    <t>Иван156</t>
+  </si>
+  <si>
+    <t>Иван157</t>
+  </si>
+  <si>
+    <t>Иван158</t>
+  </si>
+  <si>
+    <t>Иван159</t>
+  </si>
+  <si>
+    <t>Иван160</t>
+  </si>
+  <si>
+    <t>Иван161</t>
+  </si>
+  <si>
+    <t>Иван162</t>
+  </si>
+  <si>
+    <t>Иван163</t>
+  </si>
+  <si>
+    <t>Иван164</t>
+  </si>
+  <si>
+    <t>Иван165</t>
+  </si>
+  <si>
+    <t>Иван166</t>
+  </si>
+  <si>
+    <t>Иван167</t>
+  </si>
+  <si>
+    <t>Иван168</t>
+  </si>
+  <si>
+    <t>Иван169</t>
+  </si>
+  <si>
+    <t>Иван170</t>
+  </si>
+  <si>
+    <t>Иван171</t>
+  </si>
+  <si>
+    <t>Иван172</t>
+  </si>
+  <si>
+    <t>Иван173</t>
+  </si>
+  <si>
+    <t>Иван174</t>
+  </si>
+  <si>
+    <t>Иван175</t>
+  </si>
+  <si>
+    <t>Иван176</t>
+  </si>
+  <si>
+    <t>Иван177</t>
+  </si>
+  <si>
+    <t>Иван178</t>
+  </si>
+  <si>
+    <t>Иван179</t>
+  </si>
+  <si>
+    <t>Иван180</t>
+  </si>
+  <si>
+    <t>Иван181</t>
+  </si>
+  <si>
+    <t>Иван182</t>
+  </si>
+  <si>
+    <t>Иван183</t>
+  </si>
+  <si>
+    <t>Иван184</t>
+  </si>
+  <si>
+    <t>Иван185</t>
+  </si>
+  <si>
+    <t>Иван186</t>
+  </si>
+  <si>
+    <t>Иван187</t>
+  </si>
+  <si>
+    <t>Иван188</t>
+  </si>
+  <si>
+    <t>Иван189</t>
+  </si>
+  <si>
+    <t>Иван190</t>
+  </si>
+  <si>
+    <t>Иван191</t>
+  </si>
+  <si>
+    <t>Иван192</t>
+  </si>
+  <si>
+    <t>Иван193</t>
+  </si>
+  <si>
+    <t>Иван194</t>
+  </si>
+  <si>
+    <t>Иван195</t>
+  </si>
+  <si>
+    <t>Иван196</t>
+  </si>
+  <si>
+    <t>Иван197</t>
+  </si>
+  <si>
+    <t>Иван198</t>
+  </si>
+  <si>
+    <t>Иван199</t>
+  </si>
+  <si>
+    <t>Иван200</t>
+  </si>
+  <si>
+    <t>Иван201</t>
+  </si>
+  <si>
+    <t>Иван202</t>
+  </si>
+  <si>
+    <t>Иван203</t>
+  </si>
+  <si>
+    <t>Иван204</t>
+  </si>
+  <si>
+    <t>Иван205</t>
+  </si>
+  <si>
+    <t>Иван206</t>
+  </si>
+  <si>
+    <t>Иван207</t>
+  </si>
+  <si>
+    <t>Иван208</t>
+  </si>
+  <si>
+    <t>Иван209</t>
+  </si>
+  <si>
+    <t>Иван210</t>
+  </si>
+  <si>
+    <t>Иван211</t>
+  </si>
+  <si>
+    <t>Иван212</t>
+  </si>
+  <si>
+    <t>Иван213</t>
+  </si>
+  <si>
+    <t>Иван214</t>
+  </si>
+  <si>
+    <t>Иван215</t>
+  </si>
+  <si>
+    <t>Иван216</t>
+  </si>
+  <si>
+    <t>Иван217</t>
+  </si>
+  <si>
+    <t>Иван218</t>
+  </si>
+  <si>
+    <t>Иван219</t>
+  </si>
+  <si>
+    <t>Иван220</t>
+  </si>
+  <si>
+    <t>Иван221</t>
+  </si>
+  <si>
+    <t>Иван222</t>
+  </si>
+  <si>
+    <t>Иван223</t>
+  </si>
+  <si>
+    <t>Иван224</t>
+  </si>
+  <si>
+    <t>Иван225</t>
+  </si>
+  <si>
+    <t>Иван226</t>
+  </si>
+  <si>
+    <t>Иван227</t>
+  </si>
+  <si>
+    <t>Иван228</t>
+  </si>
+  <si>
+    <t>Иван229</t>
+  </si>
+  <si>
+    <t>Иван230</t>
+  </si>
+  <si>
+    <t>Иван231</t>
+  </si>
+  <si>
+    <t>Иван232</t>
+  </si>
+  <si>
+    <t>Иван233</t>
+  </si>
+  <si>
+    <t>Иван234</t>
+  </si>
+  <si>
+    <t>Иван235</t>
+  </si>
+  <si>
+    <t>Иван236</t>
+  </si>
+  <si>
+    <t>Иван237</t>
+  </si>
+  <si>
+    <t>Иван238</t>
+  </si>
+  <si>
+    <t>Иван239</t>
+  </si>
+  <si>
+    <t>Иван240</t>
+  </si>
+  <si>
+    <t>Иван241</t>
+  </si>
+  <si>
+    <t>Иван242</t>
+  </si>
+  <si>
+    <t>Иван243</t>
+  </si>
+  <si>
+    <t>Иван244</t>
+  </si>
+  <si>
+    <t>Иван245</t>
+  </si>
+  <si>
+    <t>Иван246</t>
+  </si>
+  <si>
+    <t>Иван247</t>
+  </si>
+  <si>
+    <t>Иван248</t>
+  </si>
+  <si>
+    <t>Иван249</t>
+  </si>
+  <si>
+    <t>Иван250</t>
+  </si>
+  <si>
+    <t>Иван251</t>
+  </si>
+  <si>
+    <t>Иван252</t>
+  </si>
+  <si>
+    <t>Иван253</t>
+  </si>
+  <si>
+    <t>Иван254</t>
+  </si>
+  <si>
+    <t>Иван255</t>
+  </si>
+  <si>
+    <t>Иван256</t>
+  </si>
+  <si>
+    <t>Иван257</t>
+  </si>
+  <si>
+    <t>Иван258</t>
+  </si>
+  <si>
+    <t>Иван259</t>
+  </si>
+  <si>
+    <t>Иван260</t>
+  </si>
+  <si>
+    <t>Иван261</t>
+  </si>
+  <si>
+    <t>Иван262</t>
+  </si>
+  <si>
+    <t>Иван263</t>
+  </si>
+  <si>
+    <t>Иван264</t>
+  </si>
+  <si>
+    <t>Иван265</t>
+  </si>
+  <si>
+    <t>Иван266</t>
+  </si>
+  <si>
+    <t>Иван267</t>
+  </si>
+  <si>
+    <t>Иван268</t>
+  </si>
+  <si>
+    <t>Иван269</t>
+  </si>
+  <si>
+    <t>Иван270</t>
+  </si>
+  <si>
+    <t>Иван271</t>
+  </si>
+  <si>
+    <t>Иван272</t>
+  </si>
+  <si>
+    <t>Иван273</t>
+  </si>
+  <si>
+    <t>Иван274</t>
+  </si>
+  <si>
+    <t>Иван275</t>
+  </si>
+  <si>
+    <t>Иван276</t>
+  </si>
+  <si>
+    <t>Иван277</t>
+  </si>
+  <si>
+    <t>Иван278</t>
+  </si>
+  <si>
+    <t>Иван279</t>
+  </si>
+  <si>
+    <t>Иван280</t>
+  </si>
+  <si>
+    <t>Иван281</t>
+  </si>
+  <si>
+    <t>Иван282</t>
+  </si>
+  <si>
+    <t>Иван283</t>
+  </si>
+  <si>
+    <t>Иван284</t>
+  </si>
+  <si>
+    <t>Иван285</t>
+  </si>
+  <si>
+    <t>Иван286</t>
+  </si>
+  <si>
+    <t>Иван287</t>
+  </si>
+  <si>
+    <t>Иван288</t>
+  </si>
+  <si>
+    <t>Иван289</t>
+  </si>
+  <si>
+    <t>Иван290</t>
+  </si>
+  <si>
+    <t>Иван291</t>
+  </si>
+  <si>
+    <t>Иван292</t>
+  </si>
+  <si>
+    <t>Иван293</t>
+  </si>
+  <si>
+    <t>Иван294</t>
+  </si>
+  <si>
+    <t>Иван295</t>
+  </si>
+  <si>
+    <t>Иван296</t>
+  </si>
+  <si>
+    <t>Иван297</t>
+  </si>
+  <si>
+    <t>Иван298</t>
+  </si>
+  <si>
+    <t>Иван299</t>
+  </si>
+  <si>
+    <t>Иван300</t>
+  </si>
+  <si>
+    <t>Иван301</t>
+  </si>
+  <si>
+    <t>Иван302</t>
+  </si>
+  <si>
+    <t>Иван303</t>
+  </si>
+  <si>
+    <t>Иван304</t>
+  </si>
+  <si>
+    <t>Иван305</t>
+  </si>
+  <si>
+    <t>Иван306</t>
+  </si>
+  <si>
+    <t>Иван307</t>
+  </si>
+  <si>
+    <t>Иван308</t>
+  </si>
+  <si>
+    <t>Иван309</t>
+  </si>
+  <si>
+    <t>Иван310</t>
+  </si>
+  <si>
+    <t>Иван311</t>
+  </si>
+  <si>
+    <t>Иван312</t>
+  </si>
+  <si>
+    <t>Иван313</t>
+  </si>
+  <si>
+    <t>Иван314</t>
+  </si>
+  <si>
+    <t>Иван315</t>
+  </si>
+  <si>
+    <t>Иван316</t>
+  </si>
+  <si>
+    <t>Иван317</t>
+  </si>
+  <si>
+    <t>Иван318</t>
+  </si>
+  <si>
+    <t>Иван319</t>
+  </si>
+  <si>
+    <t>Иван320</t>
+  </si>
+  <si>
+    <t>Иван321</t>
+  </si>
+  <si>
+    <t>Иван322</t>
+  </si>
+  <si>
+    <t>Иван323</t>
+  </si>
+  <si>
+    <t>Иван324</t>
+  </si>
+  <si>
+    <t>Иван325</t>
+  </si>
+  <si>
+    <t>Иван326</t>
+  </si>
+  <si>
+    <t>Иван327</t>
+  </si>
+  <si>
+    <t>Иван328</t>
+  </si>
+  <si>
+    <t>Иван329</t>
+  </si>
+  <si>
+    <t>Иван330</t>
+  </si>
+  <si>
+    <t>Иван331</t>
+  </si>
+  <si>
+    <t>Иван332</t>
+  </si>
+  <si>
+    <t>Иван333</t>
+  </si>
+  <si>
+    <t>Иван334</t>
+  </si>
+  <si>
+    <t>Иван335</t>
+  </si>
+  <si>
+    <t>Иван336</t>
+  </si>
+  <si>
+    <t>Иван337</t>
+  </si>
+  <si>
+    <t>Иван338</t>
+  </si>
+  <si>
+    <t>Иван339</t>
+  </si>
+  <si>
+    <t>Иван340</t>
+  </si>
+  <si>
+    <t>Иван341</t>
+  </si>
+  <si>
+    <t>Иван342</t>
+  </si>
+  <si>
+    <t>Иван343</t>
+  </si>
+  <si>
+    <t>Иван344</t>
+  </si>
+  <si>
+    <t>Иван345</t>
+  </si>
+  <si>
+    <t>Иван346</t>
+  </si>
+  <si>
+    <t>Иван347</t>
+  </si>
+  <si>
+    <t>Иван348</t>
+  </si>
+  <si>
+    <t>Иван349</t>
+  </si>
+  <si>
+    <t>Иван350</t>
+  </si>
+  <si>
+    <t>Иван351</t>
+  </si>
+  <si>
+    <t>Иван352</t>
+  </si>
+  <si>
+    <t>Иван353</t>
+  </si>
+  <si>
+    <t>Иван354</t>
+  </si>
+  <si>
+    <t>Иван355</t>
+  </si>
+  <si>
+    <t>Иван356</t>
+  </si>
+  <si>
+    <t>Иван357</t>
+  </si>
+  <si>
+    <t>Иван358</t>
+  </si>
+  <si>
+    <t>Иван359</t>
+  </si>
+  <si>
+    <t>Иван360</t>
+  </si>
+  <si>
+    <t>Иван361</t>
+  </si>
+  <si>
+    <t>Иван362</t>
+  </si>
+  <si>
+    <t>Иван363</t>
+  </si>
+  <si>
+    <t>Иван364</t>
+  </si>
+  <si>
+    <t>Иван365</t>
+  </si>
+  <si>
+    <t>Иван366</t>
+  </si>
+  <si>
+    <t>Иван367</t>
+  </si>
+  <si>
+    <t>Иван368</t>
+  </si>
+  <si>
+    <t>Иван369</t>
+  </si>
+  <si>
+    <t>Иван370</t>
+  </si>
+  <si>
+    <t>Иван371</t>
+  </si>
+  <si>
+    <t>Иван372</t>
+  </si>
+  <si>
+    <t>Иван373</t>
+  </si>
+  <si>
+    <t>Иван374</t>
+  </si>
+  <si>
+    <t>Иван375</t>
+  </si>
+  <si>
+    <t>Иван376</t>
+  </si>
+  <si>
+    <t>Иван377</t>
+  </si>
+  <si>
+    <t>Иван378</t>
+  </si>
+  <si>
+    <t>Иван379</t>
+  </si>
+  <si>
+    <t>Иван380</t>
+  </si>
+  <si>
+    <t>Иван381</t>
+  </si>
+  <si>
+    <t>Иван382</t>
+  </si>
+  <si>
+    <t>Иван383</t>
+  </si>
+  <si>
+    <t>Иван384</t>
+  </si>
+  <si>
+    <t>Иван385</t>
+  </si>
+  <si>
+    <t>Иван386</t>
+  </si>
+  <si>
+    <t>Иван387</t>
+  </si>
+  <si>
+    <t>Иван388</t>
+  </si>
+  <si>
+    <t>Иван389</t>
+  </si>
+  <si>
+    <t>Иван390</t>
+  </si>
+  <si>
+    <t>Иван391</t>
+  </si>
+  <si>
+    <t>Иван392</t>
+  </si>
+  <si>
+    <t>Иван393</t>
+  </si>
+  <si>
+    <t>Иван394</t>
+  </si>
+  <si>
+    <t>Иван395</t>
+  </si>
+  <si>
+    <t>Иван396</t>
+  </si>
+  <si>
+    <t>Иван397</t>
+  </si>
+  <si>
+    <t>Иван398</t>
+  </si>
+  <si>
+    <t>Иван399</t>
+  </si>
+  <si>
+    <t>Иван400</t>
+  </si>
+  <si>
+    <t>Иван401</t>
+  </si>
+  <si>
+    <t>Иван402</t>
+  </si>
+  <si>
+    <t>Иван403</t>
+  </si>
+  <si>
+    <t>Иван404</t>
+  </si>
+  <si>
+    <t>Иван405</t>
+  </si>
+  <si>
+    <t>Иван406</t>
+  </si>
+  <si>
+    <t>Иван407</t>
+  </si>
+  <si>
+    <t>Иван408</t>
+  </si>
+  <si>
+    <t>Иван409</t>
+  </si>
+  <si>
+    <t>Иван410</t>
+  </si>
+  <si>
+    <t>Иван411</t>
+  </si>
+  <si>
+    <t>Иван412</t>
+  </si>
+  <si>
+    <t>Иван413</t>
+  </si>
+  <si>
+    <t>Иван414</t>
+  </si>
+  <si>
+    <t>Иван415</t>
+  </si>
+  <si>
+    <t>Иван416</t>
+  </si>
+  <si>
+    <t>Иван417</t>
+  </si>
+  <si>
+    <t>Иван418</t>
+  </si>
+  <si>
+    <t>Иван419</t>
+  </si>
+  <si>
+    <t>Иван420</t>
+  </si>
+  <si>
+    <t>Иван421</t>
+  </si>
+  <si>
+    <t>Иван422</t>
+  </si>
+  <si>
+    <t>Иван423</t>
+  </si>
+  <si>
+    <t>Иван424</t>
+  </si>
+  <si>
+    <t>Иван425</t>
+  </si>
+  <si>
+    <t>Иван426</t>
+  </si>
+  <si>
+    <t>Иван427</t>
+  </si>
+  <si>
+    <t>Иван428</t>
+  </si>
+  <si>
+    <t>Иван429</t>
+  </si>
+  <si>
+    <t>Иван430</t>
+  </si>
+  <si>
+    <t>Иван431</t>
+  </si>
+  <si>
+    <t>Иван432</t>
+  </si>
+  <si>
+    <t>Иван433</t>
+  </si>
+  <si>
+    <t>Иван434</t>
+  </si>
+  <si>
+    <t>Иван435</t>
+  </si>
+  <si>
+    <t>Иван436</t>
+  </si>
+  <si>
+    <t>Иван437</t>
+  </si>
+  <si>
+    <t>Иван438</t>
+  </si>
+  <si>
+    <t>Иван439</t>
+  </si>
+  <si>
+    <t>Иван440</t>
+  </si>
+  <si>
+    <t>Иван441</t>
+  </si>
+  <si>
+    <t>Иван442</t>
+  </si>
+  <si>
+    <t>Иван443</t>
+  </si>
+  <si>
+    <t>Иван444</t>
+  </si>
+  <si>
+    <t>Иван445</t>
+  </si>
+  <si>
+    <t>Иван446</t>
+  </si>
+  <si>
+    <t>Иван447</t>
+  </si>
+  <si>
+    <t>Иван448</t>
+  </si>
+  <si>
+    <t>Иван449</t>
+  </si>
+  <si>
+    <t>Иван450</t>
+  </si>
+  <si>
+    <t>Иван451</t>
+  </si>
+  <si>
+    <t>Иван452</t>
+  </si>
+  <si>
+    <t>Иван453</t>
+  </si>
+  <si>
+    <t>Иван454</t>
+  </si>
+  <si>
+    <t>Иван455</t>
+  </si>
+  <si>
+    <t>Иван456</t>
+  </si>
+  <si>
+    <t>Иван457</t>
+  </si>
+  <si>
+    <t>Иван458</t>
+  </si>
+  <si>
+    <t>Иван459</t>
+  </si>
+  <si>
+    <t>Иван460</t>
+  </si>
+  <si>
+    <t>Иван461</t>
+  </si>
+  <si>
+    <t>Иван462</t>
+  </si>
+  <si>
+    <t>Иван463</t>
+  </si>
+  <si>
+    <t>Иван464</t>
+  </si>
+  <si>
+    <t>Иван465</t>
+  </si>
+  <si>
+    <t>Иван466</t>
+  </si>
+  <si>
+    <t>Иван467</t>
+  </si>
+  <si>
+    <t>Иван468</t>
+  </si>
+  <si>
+    <t>Иван469</t>
+  </si>
+  <si>
+    <t>Иван470</t>
+  </si>
+  <si>
+    <t>Иван471</t>
+  </si>
+  <si>
+    <t>Иван472</t>
+  </si>
+  <si>
+    <t>Иван473</t>
+  </si>
+  <si>
+    <t>Иван474</t>
+  </si>
+  <si>
+    <t>Иван475</t>
+  </si>
+  <si>
+    <t>Иван476</t>
+  </si>
+  <si>
+    <t>Иван477</t>
+  </si>
+  <si>
+    <t>Иван478</t>
+  </si>
+  <si>
+    <t>Иван479</t>
+  </si>
+  <si>
+    <t>Иван480</t>
+  </si>
+  <si>
+    <t>Иван481</t>
+  </si>
+  <si>
+    <t>Иван482</t>
+  </si>
+  <si>
+    <t>Иван483</t>
+  </si>
+  <si>
+    <t>Иван484</t>
+  </si>
+  <si>
+    <t>Иван485</t>
+  </si>
+  <si>
+    <t>Иван486</t>
+  </si>
+  <si>
+    <t>Иван487</t>
+  </si>
+  <si>
+    <t>Иван488</t>
+  </si>
+  <si>
+    <t>Иван489</t>
+  </si>
+  <si>
+    <t>Иван490</t>
+  </si>
+  <si>
+    <t>Иван491</t>
+  </si>
+  <si>
+    <t>Иван492</t>
+  </si>
+  <si>
+    <t>Иван493</t>
+  </si>
+  <si>
+    <t>Иван494</t>
+  </si>
+  <si>
+    <t>Иван495</t>
+  </si>
+  <si>
+    <t>Иван496</t>
+  </si>
+  <si>
+    <t>Иван497</t>
+  </si>
+  <si>
+    <t>Иван498</t>
+  </si>
+  <si>
+    <t>Иван499</t>
+  </si>
+  <si>
+    <t>Иван500</t>
   </si>
 </sst>
 </file>
@@ -143,8 +1553,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
@@ -654,7 +2063,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0" zoomScale="100">
+    <sheetView topLeftCell="A468" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -683,10 +2092,10 @@
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -694,10 +2103,10 @@
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -705,10 +2114,10 @@
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -716,10 +2125,10 @@
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -727,10 +2136,10 @@
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -738,10 +2147,10 @@
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -749,10 +2158,10 @@
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -760,10 +2169,10 @@
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -771,10 +2180,10 @@
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -782,10 +2191,10 @@
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -793,10 +2202,10 @@
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -804,10 +2213,10 @@
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -815,10 +2224,10 @@
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -826,10 +2235,10 @@
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -837,10 +2246,10 @@
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -848,10 +2257,10 @@
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -859,10 +2268,10 @@
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -870,10 +2279,10 @@
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -881,10 +2290,10 @@
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -892,10 +2301,10 @@
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -903,10 +2312,10 @@
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -914,10 +2323,10 @@
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -925,21 +2334,21 @@
       </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -947,10 +2356,10 @@
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -958,10 +2367,10 @@
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -969,10 +2378,10 @@
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -980,13 +2389,5183 @@
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25">
+      <c r="A99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25">
+      <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25">
+      <c r="A102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25">
+      <c r="A103" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25">
+      <c r="A104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25">
+      <c r="A105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25">
+      <c r="A106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25">
+      <c r="A107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25">
+      <c r="A108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25">
+      <c r="A109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25">
+      <c r="A110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25">
+      <c r="A111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25">
+      <c r="A112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25">
+      <c r="A113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25">
+      <c r="A114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25">
+      <c r="A115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25">
+      <c r="A116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25">
+      <c r="A117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25">
+      <c r="A118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25">
+      <c r="A119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25">
+      <c r="A120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25">
+      <c r="A123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25">
+      <c r="A124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25">
+      <c r="A125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25">
+      <c r="A126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25">
+      <c r="A127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25">
+      <c r="A128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25">
+      <c r="A129" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25">
+      <c r="A130" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25">
+      <c r="A131" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25">
+      <c r="A132" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25">
+      <c r="A133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25">
+      <c r="A134" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25">
+      <c r="A135" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25">
+      <c r="A136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25">
+      <c r="A137" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25">
+      <c r="A138" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25">
+      <c r="A139" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25">
+      <c r="A140" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25">
+      <c r="A141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25">
+      <c r="A142" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25">
+      <c r="A143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25">
+      <c r="A144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" ht="14.25">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" ht="14.25">
+      <c r="A147" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25">
+      <c r="A148" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25">
+      <c r="A149" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25">
+      <c r="A150" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" ht="14.25">
+      <c r="A151" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25">
+      <c r="A152" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25">
+      <c r="A153" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" ht="14.25">
+      <c r="A154" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" ht="14.25">
+      <c r="A155" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" ht="14.25">
+      <c r="A156" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" ht="14.25">
+      <c r="A157" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" ht="14.25">
+      <c r="A158" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" ht="14.25">
+      <c r="A159" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" ht="14.25">
+      <c r="A160" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" ht="14.25">
+      <c r="A161" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" ht="14.25">
+      <c r="A162" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" ht="14.25">
+      <c r="A163" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" ht="14.25">
+      <c r="A164" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" ht="14.25">
+      <c r="A165" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" ht="14.25">
+      <c r="A166" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" ht="14.25">
+      <c r="A167" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" ht="14.25">
+      <c r="A168" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" ht="14.25">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" ht="14.25">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" ht="14.25">
+      <c r="A171" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" ht="14.25">
+      <c r="A172" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" ht="14.25">
+      <c r="A173" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" ht="14.25">
+      <c r="A174" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" ht="14.25">
+      <c r="A175" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" ht="14.25">
+      <c r="A176" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" ht="14.25">
+      <c r="A177" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" ht="14.25">
+      <c r="A178" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" ht="14.25">
+      <c r="A179" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" ht="14.25">
+      <c r="A180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" ht="14.25">
+      <c r="A181" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" ht="14.25">
+      <c r="A182" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" ht="14.25">
+      <c r="A183" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" ht="14.25">
+      <c r="A184" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" ht="14.25">
+      <c r="A185" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" ht="14.25">
+      <c r="A186" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" ht="14.25">
+      <c r="A187" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" ht="14.25">
+      <c r="A188" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" ht="14.25">
+      <c r="A189" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" ht="14.25">
+      <c r="A190" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" ht="14.25">
+      <c r="A191" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" ht="14.25">
+      <c r="A192" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" ht="14.25">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" ht="14.25">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" ht="14.25">
+      <c r="A195" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" ht="14.25">
+      <c r="A196" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" ht="14.25">
+      <c r="A197" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" ht="14.25">
+      <c r="A198" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" ht="14.25">
+      <c r="A199" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" ht="14.25">
+      <c r="A200" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" ht="14.25">
+      <c r="A201" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" ht="14.25">
+      <c r="A202" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" ht="14.25">
+      <c r="A203" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" ht="14.25">
+      <c r="A204" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" ht="14.25">
+      <c r="A205" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" ht="14.25">
+      <c r="A206" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" ht="14.25">
+      <c r="A207" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" ht="14.25">
+      <c r="A208" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" ht="14.25">
+      <c r="A209" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" ht="14.25">
+      <c r="A210" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" ht="14.25">
+      <c r="A211" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" ht="14.25">
+      <c r="A212" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" ht="14.25">
+      <c r="A213" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" ht="14.25">
+      <c r="A214" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" ht="14.25">
+      <c r="A215" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" ht="14.25">
+      <c r="A216" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" ht="14.25">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" ht="14.25">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" ht="14.25">
+      <c r="A219" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" ht="14.25">
+      <c r="A220" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" ht="14.25">
+      <c r="A221" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" ht="14.25">
+      <c r="A222" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" ht="14.25">
+      <c r="A223" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" ht="14.25">
+      <c r="A224" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" ht="14.25">
+      <c r="A225" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" ht="14.25">
+      <c r="A226" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" ht="14.25">
+      <c r="A227" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" ht="14.25">
+      <c r="A228" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" ht="14.25">
+      <c r="A229" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" ht="14.25">
+      <c r="A230" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" ht="14.25">
+      <c r="A231" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" ht="14.25">
+      <c r="A232" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" ht="14.25">
+      <c r="A233" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" ht="14.25">
+      <c r="A234" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" ht="14.25">
+      <c r="A235" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" ht="14.25">
+      <c r="A236" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" ht="14.25">
+      <c r="A237" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" ht="14.25">
+      <c r="A238" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" ht="14.25">
+      <c r="A239" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" ht="14.25">
+      <c r="A240" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" ht="14.25">
+      <c r="A241" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" ht="14.25">
+      <c r="A242" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" ht="14.25">
+      <c r="A243" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" ht="14.25">
+      <c r="A244" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" ht="14.25">
+      <c r="A245" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" ht="14.25">
+      <c r="A246" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" ht="14.25">
+      <c r="A247" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" ht="14.25">
+      <c r="A248" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" ht="14.25">
+      <c r="A249" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" ht="14.25">
+      <c r="A250" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" ht="14.25">
+      <c r="A251" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" ht="14.25">
+      <c r="A252" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" ht="14.25">
+      <c r="A253" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" ht="14.25">
+      <c r="A254" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" ht="14.25">
+      <c r="A255" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" ht="14.25">
+      <c r="A256" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" ht="14.25">
+      <c r="A257" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" ht="14.25">
+      <c r="A258" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" ht="14.25">
+      <c r="A259" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" ht="14.25">
+      <c r="A260" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" ht="14.25">
+      <c r="A261" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" ht="14.25">
+      <c r="A262" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" ht="14.25">
+      <c r="A263" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" ht="14.25">
+      <c r="A264" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" ht="14.25">
+      <c r="A265" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" ht="14.25">
+      <c r="A266" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" ht="14.25">
+      <c r="A267" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" ht="14.25">
+      <c r="A268" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" ht="14.25">
+      <c r="A269" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" ht="14.25">
+      <c r="A270" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" ht="14.25">
+      <c r="A271" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" ht="14.25">
+      <c r="A272" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" ht="14.25">
+      <c r="A273" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" ht="14.25">
+      <c r="A274" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" ht="14.25">
+      <c r="A275" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" ht="14.25">
+      <c r="A276" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" ht="14.25">
+      <c r="A277" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" ht="14.25">
+      <c r="A278" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" ht="14.25">
+      <c r="A279" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" ht="14.25">
+      <c r="A280" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" ht="14.25">
+      <c r="A281" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" ht="14.25">
+      <c r="A282" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" ht="14.25">
+      <c r="A283" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" ht="14.25">
+      <c r="A284" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" ht="14.25">
+      <c r="A285" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" ht="14.25">
+      <c r="A286" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" ht="14.25">
+      <c r="A287" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" ht="14.25">
+      <c r="A288" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" ht="14.25">
+      <c r="A289" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" ht="14.25">
+      <c r="A290" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" ht="14.25">
+      <c r="A291" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" ht="14.25">
+      <c r="A292" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" ht="14.25">
+      <c r="A293" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" ht="14.25">
+      <c r="A294" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" ht="14.25">
+      <c r="A295" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" ht="14.25">
+      <c r="A296" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" ht="14.25">
+      <c r="A297" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" ht="14.25">
+      <c r="A298" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" ht="14.25">
+      <c r="A299" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" ht="14.25">
+      <c r="A300" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" ht="14.25">
+      <c r="A301" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" ht="14.25">
+      <c r="A302" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" ht="14.25">
+      <c r="A303" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" ht="14.25">
+      <c r="A304" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" ht="14.25">
+      <c r="A305" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" ht="14.25">
+      <c r="A306" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" ht="14.25">
+      <c r="A307" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" ht="14.25">
+      <c r="A308" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" ht="14.25">
+      <c r="A309" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" ht="14.25">
+      <c r="A310" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" ht="14.25">
+      <c r="A311" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" ht="14.25">
+      <c r="A312" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" ht="14.25">
+      <c r="A313" t="s">
+        <v>314</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1</v>
+      </c>
+      <c r="C313" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" ht="14.25">
+      <c r="A314" t="s">
+        <v>315</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" ht="14.25">
+      <c r="A315" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" ht="14.25">
+      <c r="A316" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" ht="14.25">
+      <c r="A317" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" ht="14.25">
+      <c r="A318" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" ht="14.25">
+      <c r="A319" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" ht="14.25">
+      <c r="A320" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" ht="14.25">
+      <c r="A321" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" ht="14.25">
+      <c r="A322" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" ht="14.25">
+      <c r="A323" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" ht="14.25">
+      <c r="A324" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" ht="14.25">
+      <c r="A325" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" ht="14.25">
+      <c r="A326" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" ht="14.25">
+      <c r="A327" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" ht="14.25">
+      <c r="A328" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" ht="14.25">
+      <c r="A329" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" ht="14.25">
+      <c r="A330" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" ht="14.25">
+      <c r="A331" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" ht="14.25">
+      <c r="A332" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" ht="14.25">
+      <c r="A333" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" ht="14.25">
+      <c r="A334" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" ht="14.25">
+      <c r="A335" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" ht="14.25">
+      <c r="A336" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" ht="14.25">
+      <c r="A337" t="s">
+        <v>338</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1</v>
+      </c>
+      <c r="C337" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" ht="14.25">
+      <c r="A338" t="s">
+        <v>339</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" ht="14.25">
+      <c r="A339" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" ht="14.25">
+      <c r="A340" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" ht="14.25">
+      <c r="A341" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" ht="14.25">
+      <c r="A342" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" ht="14.25">
+      <c r="A343" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" ht="14.25">
+      <c r="A344" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" ht="14.25">
+      <c r="A345" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" ht="14.25">
+      <c r="A346" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" ht="14.25">
+      <c r="A347" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" ht="14.25">
+      <c r="A348" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" ht="14.25">
+      <c r="A349" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" ht="14.25">
+      <c r="A350" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" ht="14.25">
+      <c r="A351" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" ht="14.25">
+      <c r="A352" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" ht="14.25">
+      <c r="A353" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" ht="14.25">
+      <c r="A354" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" ht="14.25">
+      <c r="A355" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" ht="14.25">
+      <c r="A356" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" ht="14.25">
+      <c r="A357" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" ht="14.25">
+      <c r="A358" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" ht="14.25">
+      <c r="A359" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" ht="14.25">
+      <c r="A360" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" ht="14.25">
+      <c r="A361" t="s">
+        <v>362</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1</v>
+      </c>
+      <c r="C361" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" ht="14.25">
+      <c r="A362" t="s">
+        <v>363</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" ht="14.25">
+      <c r="A363" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" ht="14.25">
+      <c r="A364" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" ht="14.25">
+      <c r="A365" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" ht="14.25">
+      <c r="A366" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" ht="14.25">
+      <c r="A367" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" ht="14.25">
+      <c r="A368" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" ht="14.25">
+      <c r="A369" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" ht="14.25">
+      <c r="A370" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" ht="14.25">
+      <c r="A371" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" ht="14.25">
+      <c r="A372" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" ht="14.25">
+      <c r="A373" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" ht="14.25">
+      <c r="A374" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" ht="14.25">
+      <c r="A375" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" ht="14.25">
+      <c r="A376" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" ht="14.25">
+      <c r="A377" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" ht="14.25">
+      <c r="A378" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" ht="14.25">
+      <c r="A379" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" ht="14.25">
+      <c r="A380" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" ht="14.25">
+      <c r="A381" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" ht="14.25">
+      <c r="A382" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" ht="14.25">
+      <c r="A383" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" ht="14.25">
+      <c r="A384" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" ht="14.25">
+      <c r="A385" t="s">
+        <v>386</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1</v>
+      </c>
+      <c r="C385" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" ht="14.25">
+      <c r="A386" t="s">
+        <v>387</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" ht="14.25">
+      <c r="A387" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" ht="14.25">
+      <c r="A388" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" ht="14.25">
+      <c r="A389" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" ht="14.25">
+      <c r="A390" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" ht="14.25">
+      <c r="A391" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" ht="14.25">
+      <c r="A392" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" ht="14.25">
+      <c r="A393" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" ht="14.25">
+      <c r="A394" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" ht="14.25">
+      <c r="A395" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" ht="14.25">
+      <c r="A396" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" ht="14.25">
+      <c r="A397" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" ht="14.25">
+      <c r="A398" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" ht="14.25">
+      <c r="A399" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" ht="14.25">
+      <c r="A400" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" ht="14.25">
+      <c r="A401" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" ht="14.25">
+      <c r="A402" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" ht="14.25">
+      <c r="A403" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" ht="14.25">
+      <c r="A404" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" ht="14.25">
+      <c r="A405" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" ht="14.25">
+      <c r="A406" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" ht="14.25">
+      <c r="A407" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" ht="14.25">
+      <c r="A408" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" ht="14.25">
+      <c r="A409" t="s">
+        <v>410</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1</v>
+      </c>
+      <c r="C409" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" ht="14.25">
+      <c r="A410" t="s">
+        <v>411</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" ht="14.25">
+      <c r="A411" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" ht="14.25">
+      <c r="A412" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" ht="14.25">
+      <c r="A413" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" ht="14.25">
+      <c r="A414" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" ht="14.25">
+      <c r="A415" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" ht="14.25">
+      <c r="A416" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" ht="14.25">
+      <c r="A417" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" ht="14.25">
+      <c r="A418" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" ht="14.25">
+      <c r="A419" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" ht="14.25">
+      <c r="A420" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" ht="14.25">
+      <c r="A421" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" ht="14.25">
+      <c r="A422" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" ht="14.25">
+      <c r="A423" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" ht="14.25">
+      <c r="A424" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" ht="14.25">
+      <c r="A425" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" ht="14.25">
+      <c r="A426" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" ht="14.25">
+      <c r="A427" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" ht="14.25">
+      <c r="A428" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" ht="14.25">
+      <c r="A429" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" ht="14.25">
+      <c r="A430" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" ht="14.25">
+      <c r="A431" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" ht="14.25">
+      <c r="A432" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" ht="14.25">
+      <c r="A433" t="s">
+        <v>434</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1</v>
+      </c>
+      <c r="C433" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" ht="14.25">
+      <c r="A434" t="s">
+        <v>435</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" ht="14.25">
+      <c r="A435" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" ht="14.25">
+      <c r="A436" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" ht="14.25">
+      <c r="A437" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" ht="14.25">
+      <c r="A438" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" ht="14.25">
+      <c r="A439" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" ht="14.25">
+      <c r="A440" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" ht="14.25">
+      <c r="A441" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" ht="14.25">
+      <c r="A442" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" ht="14.25">
+      <c r="A443" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" ht="14.25">
+      <c r="A444" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" ht="14.25">
+      <c r="A445" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" ht="14.25">
+      <c r="A446" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" ht="14.25">
+      <c r="A447" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" ht="14.25">
+      <c r="A448" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" ht="14.25">
+      <c r="A449" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" ht="14.25">
+      <c r="A450" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" ht="14.25">
+      <c r="A451" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" ht="14.25">
+      <c r="A452" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" ht="14.25">
+      <c r="A453" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" ht="14.25">
+      <c r="A454" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" ht="14.25">
+      <c r="A455" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" ht="14.25">
+      <c r="A456" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" ht="14.25">
+      <c r="A457" t="s">
+        <v>458</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1</v>
+      </c>
+      <c r="C457" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" ht="14.25">
+      <c r="A458" t="s">
+        <v>459</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" ht="14.25">
+      <c r="A459" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" ht="14.25">
+      <c r="A460" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" ht="14.25">
+      <c r="A461" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" ht="14.25">
+      <c r="A462" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" ht="14.25">
+      <c r="A463" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" ht="14.25">
+      <c r="A464" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" ht="14.25">
+      <c r="A465" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" ht="14.25">
+      <c r="A466" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" ht="14.25">
+      <c r="A467" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" ht="14.25">
+      <c r="A468" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" ht="14.25">
+      <c r="A469" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" ht="14.25">
+      <c r="A470" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" ht="14.25">
+      <c r="A471" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" ht="14.25">
+      <c r="A472" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" ht="14.25">
+      <c r="A473" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" ht="14.25">
+      <c r="A474" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" ht="14.25">
+      <c r="A475" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" ht="14.25">
+      <c r="A476" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" ht="14.25">
+      <c r="A477" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" ht="14.25">
+      <c r="A478" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" ht="14.25">
+      <c r="A479" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" ht="14.25">
+      <c r="A480" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" ht="14.25">
+      <c r="A481" t="s">
+        <v>482</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1</v>
+      </c>
+      <c r="C481" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" ht="14.25">
+      <c r="A482" t="s">
+        <v>483</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" ht="14.25">
+      <c r="A483" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" ht="14.25">
+      <c r="A484" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" ht="14.25">
+      <c r="A485" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" ht="14.25">
+      <c r="A486" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" ht="14.25">
+      <c r="A487" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" ht="14.25">
+      <c r="A488" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" ht="14.25">
+      <c r="A489" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" ht="14.25">
+      <c r="A490" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" ht="14.25">
+      <c r="A491" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" ht="14.25">
+      <c r="A492" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" ht="14.25">
+      <c r="A493" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" ht="14.25">
+      <c r="A494" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" ht="14.25">
+      <c r="A495" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" ht="14.25">
+      <c r="A496" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" ht="14.25">
+      <c r="A497" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" ht="14.25">
+      <c r="A498" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" ht="14.25">
+      <c r="A499" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" ht="14.25">
+      <c r="A500" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C500" s="1" t="s">
         <v>2</v>
       </c>
     </row>
